--- a/data/pca/factorExposure/factorExposure_2017-08-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02386167768073922</v>
+        <v>-0.01017211378224488</v>
       </c>
       <c r="C2">
-        <v>-0.0007222794997035172</v>
+        <v>-0.04347477565402932</v>
       </c>
       <c r="D2">
-        <v>-0.01689428724270248</v>
+        <v>-0.02978723242959051</v>
       </c>
       <c r="E2">
-        <v>0.01076868334993574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03341125827334308</v>
+      </c>
+      <c r="F2">
+        <v>0.0117086020299874</v>
+      </c>
+      <c r="G2">
+        <v>0.0737863779959233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01587041439321855</v>
+        <v>-0.05771708243672279</v>
       </c>
       <c r="C3">
-        <v>-0.05180731725948123</v>
+        <v>-0.07021091509882746</v>
       </c>
       <c r="D3">
-        <v>0.003024468428122759</v>
+        <v>-0.01488187583766466</v>
       </c>
       <c r="E3">
-        <v>-0.01496937417176903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.1018414522015929</v>
+      </c>
+      <c r="F3">
+        <v>0.03227351728869921</v>
+      </c>
+      <c r="G3">
+        <v>0.1639624243729974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02368478566737123</v>
+        <v>-0.06083610677221397</v>
       </c>
       <c r="C4">
-        <v>-0.02045509411865519</v>
+        <v>-0.06311052244623196</v>
       </c>
       <c r="D4">
-        <v>-0.06300746450901501</v>
+        <v>-0.02340102742629893</v>
       </c>
       <c r="E4">
-        <v>-0.01141455217852349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02194177345701152</v>
+      </c>
+      <c r="F4">
+        <v>0.007407418545810026</v>
+      </c>
+      <c r="G4">
+        <v>0.07358163949873449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01524652684777786</v>
+        <v>-0.04170829280909863</v>
       </c>
       <c r="C6">
-        <v>-0.01035326936713994</v>
+        <v>-0.05229251177219965</v>
       </c>
       <c r="D6">
-        <v>-0.08833549267667058</v>
+        <v>-0.01583970727834218</v>
       </c>
       <c r="E6">
-        <v>-0.004041213820457783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02061337864174482</v>
+      </c>
+      <c r="F6">
+        <v>0.01299269509762407</v>
+      </c>
+      <c r="G6">
+        <v>0.0489150195588503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01060115490071606</v>
+        <v>-0.02031401181359848</v>
       </c>
       <c r="C7">
-        <v>-0.006538858924547115</v>
+        <v>-0.04003515425103261</v>
       </c>
       <c r="D7">
-        <v>-0.03721579100768695</v>
+        <v>-0.01328071673804264</v>
       </c>
       <c r="E7">
-        <v>-0.06068968835993076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.005469778693666058</v>
+      </c>
+      <c r="F7">
+        <v>-0.001970631693985329</v>
+      </c>
+      <c r="G7">
+        <v>0.1138989518779206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-7.443873484656695e-06</v>
+        <v>-0.001793221985966937</v>
       </c>
       <c r="C8">
-        <v>-0.000843597195325831</v>
+        <v>-0.02107369145219781</v>
       </c>
       <c r="D8">
-        <v>-0.00160529233560785</v>
+        <v>-0.003664157480484695</v>
       </c>
       <c r="E8">
-        <v>-0.01097991521817193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02285191835301547</v>
+      </c>
+      <c r="F8">
+        <v>0.01651287210269764</v>
+      </c>
+      <c r="G8">
+        <v>0.04741379982281355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01637454869752868</v>
+        <v>-0.0361396790107411</v>
       </c>
       <c r="C9">
-        <v>-0.02092216429308749</v>
+        <v>-0.04371180695375165</v>
       </c>
       <c r="D9">
-        <v>-0.04624528080803861</v>
+        <v>-0.01592156056352012</v>
       </c>
       <c r="E9">
-        <v>-0.003584502222123664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01499342974283416</v>
+      </c>
+      <c r="F9">
+        <v>0.01209769624221686</v>
+      </c>
+      <c r="G9">
+        <v>0.07819780154711538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02018782000220572</v>
+        <v>-0.08995050389316908</v>
       </c>
       <c r="C10">
-        <v>-0.1637726103370759</v>
+        <v>0.1862898724729372</v>
       </c>
       <c r="D10">
-        <v>0.1121242829251721</v>
+        <v>0.01697572306104117</v>
       </c>
       <c r="E10">
-        <v>-0.003697194071296759</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01242141002785146</v>
+      </c>
+      <c r="F10">
+        <v>-0.01982074071367546</v>
+      </c>
+      <c r="G10">
+        <v>0.05181886374657563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.000760242815344773</v>
+        <v>-0.03580846227846624</v>
       </c>
       <c r="C11">
-        <v>-0.007230764500650289</v>
+        <v>-0.05263087232091666</v>
       </c>
       <c r="D11">
-        <v>-0.03945257663940319</v>
+        <v>-0.002366206481864172</v>
       </c>
       <c r="E11">
-        <v>0.005600578828648552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008412905657214335</v>
+      </c>
+      <c r="F11">
+        <v>0.02230209976559889</v>
+      </c>
+      <c r="G11">
+        <v>0.05974883515597462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006329088636961465</v>
+        <v>-0.03735728431657347</v>
       </c>
       <c r="C12">
-        <v>-0.01322616303432155</v>
+        <v>-0.0477888761771524</v>
       </c>
       <c r="D12">
-        <v>-0.0431243350238221</v>
+        <v>-0.006190596240892452</v>
       </c>
       <c r="E12">
-        <v>-0.004252344383262092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0009467593641597726</v>
+      </c>
+      <c r="F12">
+        <v>0.002687174742335719</v>
+      </c>
+      <c r="G12">
+        <v>0.05528685399015099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02270590970540206</v>
+        <v>-0.0184905005110133</v>
       </c>
       <c r="C13">
-        <v>-0.01572246827636508</v>
+        <v>-0.03519918426540896</v>
       </c>
       <c r="D13">
-        <v>-0.007566419706098912</v>
+        <v>-0.02543038609422337</v>
       </c>
       <c r="E13">
-        <v>0.006197699864709761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02685687227713311</v>
+      </c>
+      <c r="F13">
+        <v>0.00663176239438367</v>
+      </c>
+      <c r="G13">
+        <v>0.09175293342191815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007936647560985761</v>
+        <v>-0.0102461493381872</v>
       </c>
       <c r="C14">
-        <v>-0.01464223491294082</v>
+        <v>-0.02598238793807262</v>
       </c>
       <c r="D14">
-        <v>-0.01112532999536812</v>
+        <v>-0.008689298184869527</v>
       </c>
       <c r="E14">
-        <v>-0.01331318877644189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.003288260709960569</v>
+      </c>
+      <c r="F14">
+        <v>-0.007339442693438398</v>
+      </c>
+      <c r="G14">
+        <v>0.07911012081294359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001606104621131717</v>
+        <v>-0.03475925919870428</v>
       </c>
       <c r="C16">
-        <v>-0.01321729849977853</v>
+        <v>-0.04700707688359233</v>
       </c>
       <c r="D16">
-        <v>-0.04608367524383326</v>
+        <v>-0.00188734243828182</v>
       </c>
       <c r="E16">
-        <v>-0.00343727272144431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007221893100054597</v>
+      </c>
+      <c r="F16">
+        <v>0.00330662780121636</v>
+      </c>
+      <c r="G16">
+        <v>0.0640448443837278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01433288573964721</v>
+        <v>-0.02692322098801727</v>
       </c>
       <c r="C19">
-        <v>-0.02405194372707341</v>
+        <v>-0.04915893484225597</v>
       </c>
       <c r="D19">
-        <v>-0.01689516412070426</v>
+        <v>-0.01693250732246238</v>
       </c>
       <c r="E19">
-        <v>-0.01198187564852472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05884383321065764</v>
+      </c>
+      <c r="F19">
+        <v>0.01895746844922265</v>
+      </c>
+      <c r="G19">
+        <v>0.1037953368942781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01115347184415173</v>
+        <v>-0.01639479962257893</v>
       </c>
       <c r="C20">
-        <v>-0.009406646613701608</v>
+        <v>-0.03446772595397499</v>
       </c>
       <c r="D20">
-        <v>-0.007510654396843112</v>
+        <v>-0.01339430352523181</v>
       </c>
       <c r="E20">
-        <v>0.001192190560901523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02716832266972374</v>
+      </c>
+      <c r="F20">
+        <v>-0.005144193229671337</v>
+      </c>
+      <c r="G20">
+        <v>0.08123939175129702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01501750481457818</v>
+        <v>-0.01667796937913385</v>
       </c>
       <c r="C21">
-        <v>-0.02333518206863316</v>
+        <v>-0.03682465434562641</v>
       </c>
       <c r="D21">
-        <v>-0.02245035798447104</v>
+        <v>-0.01714619173874176</v>
       </c>
       <c r="E21">
-        <v>-0.01366636219989217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03698217879540269</v>
+      </c>
+      <c r="F21">
+        <v>-4.103345223127394e-05</v>
+      </c>
+      <c r="G21">
+        <v>0.1090625394556028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004542203764899949</v>
+        <v>-0.0285827530366845</v>
       </c>
       <c r="C24">
-        <v>-0.001768864192129474</v>
+        <v>-0.05016412983124086</v>
       </c>
       <c r="D24">
-        <v>-0.04160748608236449</v>
+        <v>-0.007369561954879866</v>
       </c>
       <c r="E24">
-        <v>0.0004640063145325492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004922745186598684</v>
+      </c>
+      <c r="F24">
+        <v>0.01615033816602782</v>
+      </c>
+      <c r="G24">
+        <v>0.06358301795751301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0121599152906272</v>
+        <v>-0.04352751058200002</v>
       </c>
       <c r="C25">
-        <v>-0.01797337097216203</v>
+        <v>-0.05665664311055851</v>
       </c>
       <c r="D25">
-        <v>-0.04354553284965685</v>
+        <v>-0.01132236032293494</v>
       </c>
       <c r="E25">
-        <v>0.0004511575950413727</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.002764200312156884</v>
+      </c>
+      <c r="F25">
+        <v>0.01011592652464469</v>
+      </c>
+      <c r="G25">
+        <v>0.06888014326198122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02313310403670324</v>
+        <v>-0.01611581329330006</v>
       </c>
       <c r="C26">
-        <v>-0.01094943722750239</v>
+        <v>-0.007614967650627124</v>
       </c>
       <c r="D26">
-        <v>0.008440987869174368</v>
+        <v>-0.02324673166187958</v>
       </c>
       <c r="E26">
-        <v>-0.01228605526470804</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.002758808005221412</v>
+      </c>
+      <c r="F26">
+        <v>-0.006986932130627233</v>
+      </c>
+      <c r="G26">
+        <v>0.06565887362583819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04262751470706225</v>
+        <v>-0.1131631044624398</v>
       </c>
       <c r="C28">
-        <v>-0.235240266476378</v>
+        <v>0.237003955459577</v>
       </c>
       <c r="D28">
-        <v>0.1629654867612224</v>
+        <v>0.007750520133996891</v>
       </c>
       <c r="E28">
-        <v>-0.02408928981014603</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.001194659891253926</v>
+      </c>
+      <c r="F28">
+        <v>-0.01852521074072429</v>
+      </c>
+      <c r="G28">
+        <v>0.06797561756718369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008259332743710579</v>
+        <v>-0.01266719106375349</v>
       </c>
       <c r="C29">
-        <v>-0.0182392758163488</v>
+        <v>-0.02048094751179801</v>
       </c>
       <c r="D29">
-        <v>-0.01014859232950742</v>
+        <v>-0.007433623592684853</v>
       </c>
       <c r="E29">
-        <v>-0.008000884279491043</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.005914147956093237</v>
+      </c>
+      <c r="F29">
+        <v>-0.01691803357062727</v>
+      </c>
+      <c r="G29">
+        <v>0.06904588667923414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02362553207976101</v>
+        <v>-0.04856160326998592</v>
       </c>
       <c r="C30">
-        <v>-0.005373003627360441</v>
+        <v>-0.06287773793892189</v>
       </c>
       <c r="D30">
-        <v>-0.05646322153240814</v>
+        <v>-0.02776378927102749</v>
       </c>
       <c r="E30">
-        <v>0.05130737876380008</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04624257604603823</v>
+      </c>
+      <c r="F30">
+        <v>0.04865395239402898</v>
+      </c>
+      <c r="G30">
+        <v>0.07082212474574465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.009801952450604969</v>
+        <v>-0.05445664391602088</v>
       </c>
       <c r="C31">
-        <v>-0.04300787391640497</v>
+        <v>-0.03357239027031413</v>
       </c>
       <c r="D31">
-        <v>-0.04092810678208185</v>
+        <v>-0.003111657677365914</v>
       </c>
       <c r="E31">
-        <v>-0.01028464422067318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.006084028473651389</v>
+      </c>
+      <c r="F31">
+        <v>-0.03789733794450173</v>
+      </c>
+      <c r="G31">
+        <v>0.0653742385818379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006040056724681456</v>
+        <v>0.0001781563177092539</v>
       </c>
       <c r="C32">
-        <v>-0.01904807764167092</v>
+        <v>-0.02812799662905576</v>
       </c>
       <c r="D32">
-        <v>0.00590938774791667</v>
+        <v>0.004023520956945791</v>
       </c>
       <c r="E32">
-        <v>-0.04892882395972901</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01475912416228019</v>
+      </c>
+      <c r="F32">
+        <v>0.04106431428756822</v>
+      </c>
+      <c r="G32">
+        <v>0.0912710127545307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0138736788348085</v>
+        <v>-0.03010334162127499</v>
       </c>
       <c r="C33">
-        <v>-0.02653636189435509</v>
+        <v>-0.04717701148661202</v>
       </c>
       <c r="D33">
-        <v>-0.01774066324975532</v>
+        <v>-0.01474970701880484</v>
       </c>
       <c r="E33">
-        <v>0.02557006870806869</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03129624239991219</v>
+      </c>
+      <c r="F33">
+        <v>0.01797534792802949</v>
+      </c>
+      <c r="G33">
+        <v>0.09941314902057712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.00397175251965042</v>
+        <v>-0.04107100045107771</v>
       </c>
       <c r="C34">
-        <v>-0.01893509830977504</v>
+        <v>-0.06062528781606017</v>
       </c>
       <c r="D34">
-        <v>-0.0474133255661183</v>
+        <v>0.004360531585084044</v>
       </c>
       <c r="E34">
-        <v>-0.00809075727519365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.001508111291991223</v>
+      </c>
+      <c r="F34">
+        <v>0.02165699134209403</v>
+      </c>
+      <c r="G34">
+        <v>0.07116013534872601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01322828141129445</v>
+        <v>-0.01639389190539261</v>
       </c>
       <c r="C36">
-        <v>-0.0223293681683839</v>
+        <v>-0.008844023848674241</v>
       </c>
       <c r="D36">
-        <v>-0.001919920709926873</v>
+        <v>-0.01145226371658112</v>
       </c>
       <c r="E36">
-        <v>-0.004446912903091137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0008204193150946552</v>
+      </c>
+      <c r="F36">
+        <v>-0.008701956373692157</v>
+      </c>
+      <c r="G36">
+        <v>0.05843770712902316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003581924668566148</v>
+        <v>-0.03362930265543583</v>
       </c>
       <c r="C38">
-        <v>-0.03633647906860926</v>
+        <v>-0.02736139609941933</v>
       </c>
       <c r="D38">
-        <v>-0.03118825667183627</v>
+        <v>0.007846711428246649</v>
       </c>
       <c r="E38">
-        <v>-0.00618713037326485</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002866356168182723</v>
+      </c>
+      <c r="F38">
+        <v>-0.0161187115137017</v>
+      </c>
+      <c r="G38">
+        <v>0.06699241075860647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.00508172307431232</v>
+        <v>-0.0364839019181457</v>
       </c>
       <c r="C39">
-        <v>0.01679709078240997</v>
+        <v>-0.08154291208535808</v>
       </c>
       <c r="D39">
-        <v>-0.08736957514223699</v>
+        <v>-0.01209159283008385</v>
       </c>
       <c r="E39">
-        <v>0.01330442489170742</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02358479970384936</v>
+      </c>
+      <c r="F39">
+        <v>0.02889570349788419</v>
+      </c>
+      <c r="G39">
+        <v>0.06609290505087978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01302026729686981</v>
+        <v>-0.02065954263296219</v>
       </c>
       <c r="C40">
-        <v>-0.02410524840989658</v>
+        <v>-0.03271773908467734</v>
       </c>
       <c r="D40">
-        <v>-0.02642266297948387</v>
+        <v>-0.01371148895523195</v>
       </c>
       <c r="E40">
-        <v>-0.002060256409324359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02217542308286071</v>
+      </c>
+      <c r="F40">
+        <v>0.01218965668382071</v>
+      </c>
+      <c r="G40">
+        <v>0.07194127859096755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006376784715355827</v>
+        <v>-0.0168673805558314</v>
       </c>
       <c r="C41">
-        <v>-0.02241209423559457</v>
+        <v>-0.00431438924189932</v>
       </c>
       <c r="D41">
-        <v>0.009492837149084886</v>
+        <v>-0.003922332130151646</v>
       </c>
       <c r="E41">
-        <v>-0.004387840894508117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0006858900263691972</v>
+      </c>
+      <c r="F41">
+        <v>-0.01184122262730988</v>
+      </c>
+      <c r="G41">
+        <v>0.04572234138073567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09333920213953102</v>
+        <v>-0.0129608802755018</v>
       </c>
       <c r="C42">
-        <v>0.003546711130186295</v>
+        <v>-0.03738183129983658</v>
       </c>
       <c r="D42">
-        <v>-0.244709687634878</v>
+        <v>-0.09404233994871354</v>
       </c>
       <c r="E42">
-        <v>0.4077586395468558</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03215701487582911</v>
+      </c>
+      <c r="F42">
+        <v>-0.03825132304150929</v>
+      </c>
+      <c r="G42">
+        <v>-0.1751219684964669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007821507174774558</v>
+        <v>-0.03317767515888049</v>
       </c>
       <c r="C43">
-        <v>-0.02619292377277001</v>
+        <v>-0.01419218431942968</v>
       </c>
       <c r="D43">
-        <v>0.0152993637545967</v>
+        <v>-0.005246501796740638</v>
       </c>
       <c r="E43">
-        <v>0.00366616430663658</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01178961863639668</v>
+      </c>
+      <c r="F43">
+        <v>-0.003565326853908085</v>
+      </c>
+      <c r="G43">
+        <v>0.0682812795844657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003375583818502605</v>
+        <v>-0.01889483071339501</v>
       </c>
       <c r="C44">
-        <v>-0.007699788953208998</v>
+        <v>-0.04796965727770702</v>
       </c>
       <c r="D44">
-        <v>-0.02482316151747073</v>
+        <v>-0.005810980046304052</v>
       </c>
       <c r="E44">
-        <v>-0.003744833201850712</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01628750851178052</v>
+      </c>
+      <c r="F44">
+        <v>-0.004343465108532916</v>
+      </c>
+      <c r="G44">
+        <v>0.08310806952992243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01128607857259909</v>
+        <v>-0.009374086745466342</v>
       </c>
       <c r="C46">
-        <v>-0.01629217143522763</v>
+        <v>-0.01638398850612135</v>
       </c>
       <c r="D46">
-        <v>-0.00963236742803945</v>
+        <v>-0.01140307466248128</v>
       </c>
       <c r="E46">
-        <v>-0.002228492213933956</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.004681266859243405</v>
+      </c>
+      <c r="F46">
+        <v>-0.01924583813538878</v>
+      </c>
+      <c r="G46">
+        <v>0.06878517463239459</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004354116385586728</v>
+        <v>-0.07931434086438215</v>
       </c>
       <c r="C47">
-        <v>-0.05490781754124349</v>
+        <v>-0.06284286614227896</v>
       </c>
       <c r="D47">
-        <v>-0.05567644372474116</v>
+        <v>0.005235057352424256</v>
       </c>
       <c r="E47">
-        <v>-0.005796297207249915</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009112881730156801</v>
+      </c>
+      <c r="F47">
+        <v>-0.05349742737998253</v>
+      </c>
+      <c r="G47">
+        <v>0.06278698742901972</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004220785511765775</v>
+        <v>-0.02266341977005839</v>
       </c>
       <c r="C48">
-        <v>-0.02802290499789475</v>
+        <v>-0.01032197506079936</v>
       </c>
       <c r="D48">
-        <v>-0.009607095620543382</v>
+        <v>-0.0007199031914902731</v>
       </c>
       <c r="E48">
-        <v>-0.005157059799162689</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003124302333187189</v>
+      </c>
+      <c r="F48">
+        <v>-0.02161276950228675</v>
+      </c>
+      <c r="G48">
+        <v>0.0661001122847179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006274309937829041</v>
+        <v>-0.08000152491340516</v>
       </c>
       <c r="C50">
-        <v>-0.0549199474076402</v>
+        <v>-0.06491596358597489</v>
       </c>
       <c r="D50">
-        <v>-0.06172295868752251</v>
+        <v>0.003476663115881309</v>
       </c>
       <c r="E50">
-        <v>-0.03192643611405689</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01306625650485928</v>
+      </c>
+      <c r="F50">
+        <v>-0.05806691355079198</v>
+      </c>
+      <c r="G50">
+        <v>0.07946056811015685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007326133854250386</v>
+        <v>-0.0164345591657058</v>
       </c>
       <c r="C51">
-        <v>-0.0168078012474448</v>
+        <v>-0.03113369390825944</v>
       </c>
       <c r="D51">
-        <v>0.004160569780322292</v>
+        <v>-0.009469940107352925</v>
       </c>
       <c r="E51">
-        <v>-0.006546389709815911</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01405621395208153</v>
+      </c>
+      <c r="F51">
+        <v>0.02428162442685459</v>
+      </c>
+      <c r="G51">
+        <v>0.09878526292892671</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007635226725524236</v>
+        <v>-0.08657553444521343</v>
       </c>
       <c r="C53">
-        <v>-0.06678066626272128</v>
+        <v>-0.07888041288683248</v>
       </c>
       <c r="D53">
-        <v>-0.118249032628948</v>
+        <v>0.004630030355334509</v>
       </c>
       <c r="E53">
-        <v>-0.003657391514043141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03299240186504379</v>
+      </c>
+      <c r="F53">
+        <v>-0.05958355405596285</v>
+      </c>
+      <c r="G53">
+        <v>0.0472246837875348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001388216889046343</v>
+        <v>-0.03349152469838434</v>
       </c>
       <c r="C54">
-        <v>-0.03579021118475334</v>
+        <v>-0.01319433603879105</v>
       </c>
       <c r="D54">
-        <v>0.008837842950062274</v>
+        <v>0.002566724844619955</v>
       </c>
       <c r="E54">
-        <v>-0.01339461553411057</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003928118229800345</v>
+      </c>
+      <c r="F54">
+        <v>-0.007087883988777591</v>
+      </c>
+      <c r="G54">
+        <v>0.07369338985536807</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003895766987016075</v>
+        <v>-0.07549038053749255</v>
       </c>
       <c r="C55">
-        <v>-0.04668744850665225</v>
+        <v>-0.06714201803745043</v>
       </c>
       <c r="D55">
-        <v>-0.1018407633009363</v>
+        <v>0.005577575252256788</v>
       </c>
       <c r="E55">
-        <v>0.006273295659020318</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02632485345443239</v>
+      </c>
+      <c r="F55">
+        <v>-0.05886004784856676</v>
+      </c>
+      <c r="G55">
+        <v>0.03148735701096127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.006732393228811168</v>
+        <v>-0.1449540716750196</v>
       </c>
       <c r="C56">
-        <v>-0.09349640650167598</v>
+        <v>-0.1019336825120482</v>
       </c>
       <c r="D56">
-        <v>-0.1500751242658687</v>
+        <v>0.01298292198854565</v>
       </c>
       <c r="E56">
-        <v>0.006445642520960869</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03766400000141178</v>
+      </c>
+      <c r="F56">
+        <v>-0.07689533315727053</v>
+      </c>
+      <c r="G56">
+        <v>0.008353481099891669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02392519775337232</v>
+        <v>-0.00843349397119038</v>
       </c>
       <c r="C57">
-        <v>-0.01576328047447774</v>
+        <v>-0.008627358758466718</v>
       </c>
       <c r="D57">
-        <v>-0.03931701857610155</v>
+        <v>-0.02341776059529666</v>
       </c>
       <c r="E57">
-        <v>-0.001082028016091584</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02580161957516094</v>
+      </c>
+      <c r="F57">
+        <v>0.008181051721601371</v>
+      </c>
+      <c r="G57">
+        <v>0.03144276203917486</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01544394127831765</v>
+        <v>-0.07809814937511682</v>
       </c>
       <c r="C58">
-        <v>-0.09235464785032522</v>
+        <v>-0.03375869009483716</v>
       </c>
       <c r="D58">
-        <v>-0.08000014504352938</v>
+        <v>-0.01959342672171002</v>
       </c>
       <c r="E58">
-        <v>0.2645233232261359</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9402484989165152</v>
+      </c>
+      <c r="F58">
+        <v>-0.2292853514407984</v>
+      </c>
+      <c r="G58">
+        <v>-0.08672898243402161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.03980557626819464</v>
+        <v>-0.1533828564204221</v>
       </c>
       <c r="C59">
-        <v>-0.2518303163433838</v>
+        <v>0.2133535043143056</v>
       </c>
       <c r="D59">
-        <v>0.1650588836569189</v>
+        <v>0.01428490378107756</v>
       </c>
       <c r="E59">
-        <v>-0.01383709858711634</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.008452343693388332</v>
+      </c>
+      <c r="F59">
+        <v>0.001217502029918276</v>
+      </c>
+      <c r="G59">
+        <v>0.03724802584704265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04142916410602883</v>
+        <v>-0.2883751962700951</v>
       </c>
       <c r="C60">
-        <v>-0.1642810329606908</v>
+        <v>-0.08916042089415606</v>
       </c>
       <c r="D60">
-        <v>-0.07617020965700994</v>
+        <v>-0.01282871680947374</v>
       </c>
       <c r="E60">
-        <v>0.02413181817283979</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.00525639277759281</v>
+      </c>
+      <c r="F60">
+        <v>0.3516323849160513</v>
+      </c>
+      <c r="G60">
+        <v>-0.128276575785418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003491978779902321</v>
+        <v>-0.03783221880736832</v>
       </c>
       <c r="C61">
-        <v>-0.008354263667725268</v>
+        <v>-0.06506616858309706</v>
       </c>
       <c r="D61">
-        <v>-0.06313850095415649</v>
+        <v>-0.005411936263183435</v>
       </c>
       <c r="E61">
-        <v>0.003824732695407363</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01138829363106014</v>
+      </c>
+      <c r="F61">
+        <v>0.01713514451808702</v>
+      </c>
+      <c r="G61">
+        <v>0.05812466680838711</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007763283822946878</v>
+        <v>-0.01546640310294807</v>
       </c>
       <c r="C63">
-        <v>-0.009241562267582848</v>
+        <v>-0.02826382649492648</v>
       </c>
       <c r="D63">
-        <v>-0.008202469085234546</v>
+        <v>-0.00791238958515522</v>
       </c>
       <c r="E63">
-        <v>-0.008390013148644836</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.00293891141523862</v>
+      </c>
+      <c r="F63">
+        <v>-0.01773945408922127</v>
+      </c>
+      <c r="G63">
+        <v>0.06720738764946739</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008808206643505297</v>
+        <v>-0.05087161624941136</v>
       </c>
       <c r="C64">
-        <v>-0.03167356817792064</v>
+        <v>-0.04375144265881069</v>
       </c>
       <c r="D64">
-        <v>-0.06270173115803084</v>
+        <v>-0.005700679209838974</v>
       </c>
       <c r="E64">
-        <v>0.02030617074332626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.003868499011889133</v>
+      </c>
+      <c r="F64">
+        <v>0.002504222575882332</v>
+      </c>
+      <c r="G64">
+        <v>0.05038532940288226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01716266570918963</v>
+        <v>-0.08259803866136145</v>
       </c>
       <c r="C65">
-        <v>-0.01001504090904051</v>
+        <v>-0.05631456652446153</v>
       </c>
       <c r="D65">
-        <v>-0.1050734101301402</v>
+        <v>-0.0153830491453066</v>
       </c>
       <c r="E65">
-        <v>-0.006628660571741846</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02108911851990537</v>
+      </c>
+      <c r="F65">
+        <v>0.03168566172345007</v>
+      </c>
+      <c r="G65">
+        <v>0.01909045078675399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005046556829693146</v>
+        <v>-0.05373321969037822</v>
       </c>
       <c r="C66">
-        <v>0.01099503462872302</v>
+        <v>-0.1109446990332104</v>
       </c>
       <c r="D66">
-        <v>-0.1128720400876528</v>
+        <v>-0.01201569833836935</v>
       </c>
       <c r="E66">
-        <v>0.01549190982554352</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02869107061071824</v>
+      </c>
+      <c r="F66">
+        <v>0.03715121789581547</v>
+      </c>
+      <c r="G66">
+        <v>0.07047818251760811</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003112881804433673</v>
+        <v>-0.05536238961073408</v>
       </c>
       <c r="C67">
-        <v>-0.05753051221842533</v>
+        <v>-0.03026034774621538</v>
       </c>
       <c r="D67">
-        <v>-0.03645397896638377</v>
+        <v>0.005800838836686873</v>
       </c>
       <c r="E67">
-        <v>-0.006589058442124687</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.002839887430659428</v>
+      </c>
+      <c r="F67">
+        <v>-0.0158725485342512</v>
+      </c>
+      <c r="G67">
+        <v>0.06219378193420126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05712162225367522</v>
+        <v>-0.1377836001969537</v>
       </c>
       <c r="C68">
-        <v>-0.2292775465419843</v>
+        <v>0.2756889355922684</v>
       </c>
       <c r="D68">
-        <v>0.1588339602176783</v>
+        <v>-0.003641073306967351</v>
       </c>
       <c r="E68">
-        <v>0.004457836223655524</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.006879646958353971</v>
+      </c>
+      <c r="F68">
+        <v>-0.03289579326071211</v>
+      </c>
+      <c r="G68">
+        <v>0.02619154556837756</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0007455350667333383</v>
+        <v>-0.08218722222269677</v>
       </c>
       <c r="C69">
-        <v>-0.04264930056547207</v>
+        <v>-0.06793791462009659</v>
       </c>
       <c r="D69">
-        <v>-0.06142931090981121</v>
+        <v>0.009199189977908194</v>
       </c>
       <c r="E69">
-        <v>-0.003862954731035532</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02695657224546528</v>
+      </c>
+      <c r="F69">
+        <v>-0.03919554335838218</v>
+      </c>
+      <c r="G69">
+        <v>0.06603721325046127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04245588124375865</v>
+        <v>-0.1284535100703834</v>
       </c>
       <c r="C71">
-        <v>-0.2034585641776404</v>
+        <v>0.2361543820120101</v>
       </c>
       <c r="D71">
-        <v>0.1415063708826776</v>
+        <v>0.005111692573419757</v>
       </c>
       <c r="E71">
-        <v>-0.005577760762636824</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02501919371189964</v>
+      </c>
+      <c r="F71">
+        <v>-0.01154795393150301</v>
+      </c>
+      <c r="G71">
+        <v>0.04424538934521006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.00028914863808491</v>
+        <v>-0.08796623516983301</v>
       </c>
       <c r="C72">
-        <v>-0.04916509131187177</v>
+        <v>-0.07052787463717131</v>
       </c>
       <c r="D72">
-        <v>-0.1294172272517862</v>
+        <v>0.00801762343414145</v>
       </c>
       <c r="E72">
-        <v>0.01011672182919449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.00325673529068635</v>
+      </c>
+      <c r="F72">
+        <v>0.04408599681152214</v>
+      </c>
+      <c r="G72">
+        <v>0.04845635576113671</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05464020010601339</v>
+        <v>-0.3852926716192327</v>
       </c>
       <c r="C73">
-        <v>-0.1902393098069544</v>
+        <v>-0.0993695669989471</v>
       </c>
       <c r="D73">
-        <v>-0.165731639819915</v>
+        <v>-0.02180796430633837</v>
       </c>
       <c r="E73">
-        <v>0.07326625071323335</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06307191324053744</v>
+      </c>
+      <c r="F73">
+        <v>0.5700555833365739</v>
+      </c>
+      <c r="G73">
+        <v>-0.2111694713330418</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.003603686360599744</v>
+        <v>-0.1151151715121304</v>
       </c>
       <c r="C74">
-        <v>-0.08226377002744759</v>
+        <v>-0.1103036548970215</v>
       </c>
       <c r="D74">
-        <v>-0.1592787391144732</v>
+        <v>0.01026133390233799</v>
       </c>
       <c r="E74">
-        <v>0.01966074911313802</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01580751641614035</v>
+      </c>
+      <c r="F74">
+        <v>-0.07224772292966643</v>
+      </c>
+      <c r="G74">
+        <v>0.04967795916512171</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01287987917684683</v>
+        <v>-0.2520306251355439</v>
       </c>
       <c r="C75">
-        <v>-0.1905542279349559</v>
+        <v>-0.1463607397725534</v>
       </c>
       <c r="D75">
-        <v>-0.2861700353484718</v>
+        <v>0.0299532739720839</v>
       </c>
       <c r="E75">
-        <v>0.03976087492118133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05632143328774561</v>
+      </c>
+      <c r="F75">
+        <v>-0.1784227209252317</v>
+      </c>
+      <c r="G75">
+        <v>-0.06537960291648445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.0009236063426998584</v>
+        <v>-0.1283952783165003</v>
       </c>
       <c r="C76">
-        <v>-0.1213747504639414</v>
+        <v>-0.1131034169154149</v>
       </c>
       <c r="D76">
-        <v>-0.2338328500320447</v>
+        <v>0.02048023675497561</v>
       </c>
       <c r="E76">
-        <v>-0.008413966055023004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04701048922392584</v>
+      </c>
+      <c r="F76">
+        <v>-0.1168296709578002</v>
+      </c>
+      <c r="G76">
+        <v>0.0211407781017139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01292345361816831</v>
+        <v>-0.06813971356928646</v>
       </c>
       <c r="C77">
-        <v>-0.02116015314829814</v>
+        <v>-0.05645051013678135</v>
       </c>
       <c r="D77">
-        <v>-0.04469214027724503</v>
+        <v>-0.0121692484186878</v>
       </c>
       <c r="E77">
-        <v>0.01249585049033841</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.0516334627074049</v>
+      </c>
+      <c r="F77">
+        <v>0.01341541982082474</v>
+      </c>
+      <c r="G77">
+        <v>0.06791843014081619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004958006218925975</v>
+        <v>-0.04672420380400008</v>
       </c>
       <c r="C78">
-        <v>-0.01681276778247447</v>
+        <v>-0.04843144380764819</v>
       </c>
       <c r="D78">
-        <v>-0.06286908121221391</v>
+        <v>-0.005014626518957118</v>
       </c>
       <c r="E78">
-        <v>0.008322046643777978</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01960395191371247</v>
+      </c>
+      <c r="F78">
+        <v>0.03631889964880414</v>
+      </c>
+      <c r="G78">
+        <v>0.06496551471032823</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01609834975247077</v>
+        <v>-0.05833191739978169</v>
       </c>
       <c r="C80">
-        <v>-0.0919952647507148</v>
+        <v>-0.06462912289504565</v>
       </c>
       <c r="D80">
-        <v>-0.2273576071358692</v>
+        <v>-0.0108982203158603</v>
       </c>
       <c r="E80">
-        <v>-0.8450761779988061</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02195727750205506</v>
+      </c>
+      <c r="F80">
+        <v>0.01770799046097433</v>
+      </c>
+      <c r="G80">
+        <v>0.689878191582693</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008490246863970643</v>
+        <v>-0.1437477494852003</v>
       </c>
       <c r="C81">
-        <v>-0.1156971930939723</v>
+        <v>-0.09026952235893851</v>
       </c>
       <c r="D81">
-        <v>-0.1708774301962313</v>
+        <v>0.01534299337623248</v>
       </c>
       <c r="E81">
-        <v>0.004831271465865106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03330044380450047</v>
+      </c>
+      <c r="F81">
+        <v>-0.1277670181543326</v>
+      </c>
+      <c r="G81">
+        <v>0.01326251052874255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1202924275583795</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05843250261200515</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.006393906578864572</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08285303794211213</v>
+      </c>
+      <c r="F82">
+        <v>-0.02210247260832426</v>
+      </c>
+      <c r="G82">
+        <v>0.03705252728289796</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007407054370090568</v>
+        <v>-0.03378920797231561</v>
       </c>
       <c r="C83">
-        <v>-0.0218070761510676</v>
+        <v>-0.02238707702824868</v>
       </c>
       <c r="D83">
-        <v>-0.01937594979682312</v>
+        <v>-0.005809480766295341</v>
       </c>
       <c r="E83">
-        <v>-0.003471540180499382</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.03031167215139323</v>
+      </c>
+      <c r="F83">
+        <v>0.03591482171612884</v>
+      </c>
+      <c r="G83">
+        <v>0.05228220568433532</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.0187181190138657</v>
+        <v>-0.2195821808297121</v>
       </c>
       <c r="C85">
-        <v>-0.1488155139891243</v>
+        <v>-0.1417449684540291</v>
       </c>
       <c r="D85">
-        <v>-0.2624147883049772</v>
+        <v>0.01756887702009052</v>
       </c>
       <c r="E85">
-        <v>0.0379671910642841</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0961565716951092</v>
+      </c>
+      <c r="F85">
+        <v>-0.1399940788811724</v>
+      </c>
+      <c r="G85">
+        <v>-0.1089056721419256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008557214833770093</v>
+        <v>-0.01744060403615866</v>
       </c>
       <c r="C86">
-        <v>-0.03073868459554389</v>
+        <v>-0.02240036845901587</v>
       </c>
       <c r="D86">
-        <v>-0.004930850966925585</v>
+        <v>-0.01095925344212017</v>
       </c>
       <c r="E86">
-        <v>0.027765369225543</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04135235784038324</v>
+      </c>
+      <c r="F86">
+        <v>0.04138293814717027</v>
+      </c>
+      <c r="G86">
+        <v>0.1337334967738928</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007911099320712824</v>
+        <v>-0.02419818169036009</v>
       </c>
       <c r="C87">
-        <v>-0.01306840341303596</v>
+        <v>-0.02536010645201777</v>
       </c>
       <c r="D87">
-        <v>-0.03926261068260845</v>
+        <v>-0.01096267926298535</v>
       </c>
       <c r="E87">
-        <v>0.00726699098505642</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08464448115826705</v>
+      </c>
+      <c r="F87">
+        <v>0.02170607728078697</v>
+      </c>
+      <c r="G87">
+        <v>0.09416114450536063</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02825926244724247</v>
+        <v>-0.09198277279889143</v>
       </c>
       <c r="C88">
-        <v>-0.03530985179432661</v>
+        <v>-0.06452966808273999</v>
       </c>
       <c r="D88">
-        <v>-0.03262347965568073</v>
+        <v>-0.02295320754890694</v>
       </c>
       <c r="E88">
-        <v>-0.004203974644685889</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01188428295561206</v>
+      </c>
+      <c r="F88">
+        <v>-0.02265778317567927</v>
+      </c>
+      <c r="G88">
+        <v>0.06520307299195878</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07912720545835342</v>
+        <v>-0.2126096810928308</v>
       </c>
       <c r="C89">
-        <v>-0.364094585177991</v>
+        <v>0.3769727942848817</v>
       </c>
       <c r="D89">
-        <v>0.2477075857276566</v>
+        <v>0.003838223575320813</v>
       </c>
       <c r="E89">
-        <v>-0.01309571537060918</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0221962439129332</v>
+      </c>
+      <c r="F89">
+        <v>-0.02609350425341274</v>
+      </c>
+      <c r="G89">
+        <v>0.05135261332522169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06062830991753422</v>
+        <v>-0.1915613672498672</v>
       </c>
       <c r="C90">
-        <v>-0.2822344982411271</v>
+        <v>0.3344523609979843</v>
       </c>
       <c r="D90">
-        <v>0.2184074658945754</v>
+        <v>0.008303702578368525</v>
       </c>
       <c r="E90">
-        <v>0.005260550734927777</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01961416294206111</v>
+      </c>
+      <c r="F90">
+        <v>-0.05093833483449527</v>
+      </c>
+      <c r="G90">
+        <v>0.01796935731810102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.008497199428703193</v>
+        <v>-0.1969519609735537</v>
       </c>
       <c r="C91">
-        <v>-0.1636131653563535</v>
+        <v>-0.1367380668229537</v>
       </c>
       <c r="D91">
-        <v>-0.2427182048247583</v>
+        <v>0.02346592297184814</v>
       </c>
       <c r="E91">
-        <v>0.009734314149561952</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07043738483166136</v>
+      </c>
+      <c r="F91">
+        <v>-0.1570628432527695</v>
+      </c>
+      <c r="G91">
+        <v>0.002871356568668709</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02765717007264698</v>
+        <v>-0.1958183019557589</v>
       </c>
       <c r="C92">
-        <v>-0.307633883111732</v>
+        <v>0.2629838203825811</v>
       </c>
       <c r="D92">
-        <v>0.09628864015936051</v>
+        <v>0.04396070086640927</v>
       </c>
       <c r="E92">
-        <v>0.002506153898353972</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01256706299044357</v>
+      </c>
+      <c r="F92">
+        <v>-0.06699118128519002</v>
+      </c>
+      <c r="G92">
+        <v>0.1081751690721031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05900687995979337</v>
+        <v>-0.2168982156956002</v>
       </c>
       <c r="C93">
-        <v>-0.3121012166842987</v>
+        <v>0.3298115269321015</v>
       </c>
       <c r="D93">
-        <v>0.2070812004091818</v>
+        <v>0.01472821963862142</v>
       </c>
       <c r="E93">
-        <v>0.03159990927771778</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.005289106303405469</v>
+      </c>
+      <c r="F93">
+        <v>-0.03643755151041281</v>
+      </c>
+      <c r="G93">
+        <v>0.01437271435562026</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03281804428232235</v>
+        <v>-0.3184269245442081</v>
       </c>
       <c r="C94">
-        <v>-0.1945975379050209</v>
+        <v>-0.1626861259821566</v>
       </c>
       <c r="D94">
-        <v>-0.2424479879300492</v>
+        <v>0.0168116951526626</v>
       </c>
       <c r="E94">
-        <v>0.03136512092672392</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1595961939768085</v>
+      </c>
+      <c r="F94">
+        <v>-0.4809147417880511</v>
+      </c>
+      <c r="G94">
+        <v>-0.2515611499092279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004061230712111613</v>
+        <v>-0.09708268845787661</v>
       </c>
       <c r="C95">
-        <v>-0.04153533485900768</v>
+        <v>-0.08043343307784726</v>
       </c>
       <c r="D95">
-        <v>-0.08489553622523982</v>
+        <v>0.008190532681907505</v>
       </c>
       <c r="E95">
-        <v>0.132313086862543</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06337407356450575</v>
+      </c>
+      <c r="F95">
+        <v>0.1825957316134817</v>
+      </c>
+      <c r="G95">
+        <v>-0.05562874130379453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01577613491727283</v>
+        <v>-0.1999870419741488</v>
       </c>
       <c r="C98">
-        <v>-0.1696151733838903</v>
+        <v>-0.03863115303899361</v>
       </c>
       <c r="D98">
-        <v>-0.1134408619438356</v>
+        <v>0.01258474436906444</v>
       </c>
       <c r="E98">
-        <v>0.05519341298000564</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06404232512185297</v>
+      </c>
+      <c r="F98">
+        <v>0.2483234873168513</v>
+      </c>
+      <c r="G98">
+        <v>-0.03020591749914721</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008044030651238564</v>
+        <v>-0.01247933505083058</v>
       </c>
       <c r="C101">
-        <v>-0.01793242653373567</v>
+        <v>-0.02043378914782134</v>
       </c>
       <c r="D101">
-        <v>-0.009891431387687626</v>
+        <v>-0.007256788372131523</v>
       </c>
       <c r="E101">
-        <v>-0.008453690021102895</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.006163646135502156</v>
+      </c>
+      <c r="F101">
+        <v>-0.01796317521793413</v>
+      </c>
+      <c r="G101">
+        <v>0.0687207461124566</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01878347181664697</v>
+        <v>-0.1209866246104096</v>
       </c>
       <c r="C102">
-        <v>-0.08490420349726847</v>
+        <v>-0.08170069094684732</v>
       </c>
       <c r="D102">
-        <v>-0.1255366877683604</v>
+        <v>-0.001325573387957579</v>
       </c>
       <c r="E102">
-        <v>0.01111603122872109</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03218680881355194</v>
+      </c>
+      <c r="F102">
+        <v>-0.0404818434361368</v>
+      </c>
+      <c r="G102">
+        <v>-0.006560576970172387</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002027532663468758</v>
+        <v>-0.003301773978795941</v>
       </c>
       <c r="C103">
-        <v>-0.01213833359516762</v>
+        <v>-0.002452736753104244</v>
       </c>
       <c r="D103">
-        <v>-0.02024502656611011</v>
+        <v>-0.0001032272250684418</v>
       </c>
       <c r="E103">
-        <v>-0.01495545277370225</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001789997450872921</v>
+      </c>
+      <c r="F103">
+        <v>-0.005420571919951715</v>
+      </c>
+      <c r="G103">
+        <v>0.01329810206210449</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9760330327118236</v>
+        <v>-0.02346943083173423</v>
       </c>
       <c r="C104">
-        <v>0.1711958700692941</v>
+        <v>0.03609297392140182</v>
       </c>
       <c r="D104">
-        <v>0.004548403456428383</v>
+        <v>-0.9874588592388899</v>
       </c>
       <c r="E104">
-        <v>-0.03707421810245564</v>
+        <v>0.04411068559380411</v>
+      </c>
+      <c r="F104">
+        <v>-0.04149606271272491</v>
+      </c>
+      <c r="G104">
+        <v>-0.01911175168794308</v>
       </c>
     </row>
   </sheetData>
